--- a/evaluation/scores_retrieval.xlsx
+++ b/evaluation/scores_retrieval.xlsx
@@ -1729,13 +1729,13 @@
         <v>4.0</v>
       </c>
       <c r="F22" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G22" s="3">
-        <v>147.0</v>
+        <v>34.0</v>
       </c>
       <c r="H22" s="3">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="3">
         <v>2.0</v>
@@ -1761,10 +1761,10 @@
         <v>3.0</v>
       </c>
       <c r="G23" s="3">
-        <v>147.0</v>
+        <v>34.0</v>
       </c>
       <c r="H23" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" s="3">
         <v>4.0</v>
@@ -1789,13 +1789,13 @@
         <v>4.0</v>
       </c>
       <c r="F24" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" s="3">
-        <v>147.0</v>
+        <v>34.0</v>
       </c>
       <c r="H24" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" s="3">
         <v>4.0</v>
@@ -1818,13 +1818,13 @@
         <v>4.0</v>
       </c>
       <c r="F25" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G25" s="3">
-        <v>147.0</v>
+        <v>34.0</v>
       </c>
       <c r="H25" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I25" s="3">
         <v>2.0</v>
@@ -1851,13 +1851,13 @@
         <v>4.0</v>
       </c>
       <c r="F26" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" s="3">
-        <v>147.0</v>
+        <v>34.0</v>
       </c>
       <c r="H26" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" s="3">
         <v>4.0</v>
@@ -1880,13 +1880,13 @@
         <v>4.0</v>
       </c>
       <c r="F27" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G27" s="3">
-        <v>147.0</v>
+        <v>34.0</v>
       </c>
       <c r="H27" s="3">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" s="3">
         <v>2.0</v>
@@ -1909,10 +1909,10 @@
         <v>4.0</v>
       </c>
       <c r="F28" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" s="3">
-        <v>147.0</v>
+        <v>34.0</v>
       </c>
       <c r="H28" s="3">
         <v>1.0</v>
@@ -1939,13 +1939,13 @@
         <v>88</v>
       </c>
       <c r="E29" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F29" s="3">
         <v>3.0</v>
       </c>
       <c r="G29" s="3">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="H29" s="3">
         <v>1.0</v>
@@ -1976,7 +1976,7 @@
         <v>3.0</v>
       </c>
       <c r="G30" s="3">
-        <v>63.0</v>
+        <v>34.0</v>
       </c>
       <c r="H30" s="3">
         <v>1.0</v>
@@ -2004,13 +2004,13 @@
         <v>4.0</v>
       </c>
       <c r="F31" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G31" s="3">
-        <v>63.0</v>
+        <v>34.0</v>
       </c>
       <c r="H31" s="3">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" s="3">
         <v>2.0</v>
@@ -2036,7 +2036,7 @@
         <v>3.0</v>
       </c>
       <c r="G32" s="3">
-        <v>168.0</v>
+        <v>34.0</v>
       </c>
       <c r="H32" s="3">
         <v>1.0</v>

--- a/evaluation/scores_retrieval.xlsx
+++ b/evaluation/scores_retrieval.xlsx
@@ -1729,13 +1729,13 @@
         <v>4.0</v>
       </c>
       <c r="F22" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" s="3">
-        <v>34.0</v>
+        <v>147.0</v>
       </c>
       <c r="H22" s="3">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I22" s="3">
         <v>2.0</v>
@@ -1761,10 +1761,10 @@
         <v>3.0</v>
       </c>
       <c r="G23" s="3">
-        <v>34.0</v>
+        <v>147.0</v>
       </c>
       <c r="H23" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I23" s="3">
         <v>4.0</v>
@@ -1789,13 +1789,13 @@
         <v>4.0</v>
       </c>
       <c r="F24" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G24" s="3">
-        <v>34.0</v>
+        <v>147.0</v>
       </c>
       <c r="H24" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I24" s="3">
         <v>4.0</v>
@@ -1818,13 +1818,13 @@
         <v>4.0</v>
       </c>
       <c r="F25" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G25" s="3">
-        <v>34.0</v>
+        <v>147.0</v>
       </c>
       <c r="H25" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I25" s="3">
         <v>2.0</v>
@@ -1851,13 +1851,13 @@
         <v>4.0</v>
       </c>
       <c r="F26" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G26" s="3">
-        <v>34.0</v>
+        <v>147.0</v>
       </c>
       <c r="H26" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I26" s="3">
         <v>4.0</v>
@@ -1880,13 +1880,13 @@
         <v>4.0</v>
       </c>
       <c r="F27" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G27" s="3">
-        <v>34.0</v>
+        <v>147.0</v>
       </c>
       <c r="H27" s="3">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I27" s="3">
         <v>2.0</v>
@@ -1909,10 +1909,10 @@
         <v>4.0</v>
       </c>
       <c r="F28" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G28" s="3">
-        <v>34.0</v>
+        <v>147.0</v>
       </c>
       <c r="H28" s="3">
         <v>1.0</v>
@@ -1939,13 +1939,13 @@
         <v>88</v>
       </c>
       <c r="E29" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F29" s="3">
         <v>3.0</v>
       </c>
       <c r="G29" s="3">
-        <v>34.0</v>
+        <v>21.0</v>
       </c>
       <c r="H29" s="3">
         <v>1.0</v>
@@ -1976,7 +1976,7 @@
         <v>3.0</v>
       </c>
       <c r="G30" s="3">
-        <v>34.0</v>
+        <v>63.0</v>
       </c>
       <c r="H30" s="3">
         <v>1.0</v>
@@ -2004,13 +2004,13 @@
         <v>4.0</v>
       </c>
       <c r="F31" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" s="3">
-        <v>34.0</v>
+        <v>63.0</v>
       </c>
       <c r="H31" s="3">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I31" s="3">
         <v>2.0</v>
@@ -2036,7 +2036,7 @@
         <v>3.0</v>
       </c>
       <c r="G32" s="3">
-        <v>34.0</v>
+        <v>168.0</v>
       </c>
       <c r="H32" s="3">
         <v>1.0</v>
